--- a/Exp12.Change_Excel_sheet_names/data/出货单1.xlsx
+++ b/Exp12.Change_Excel_sheet_names/data/出货单1.xlsx
@@ -355,6 +355,2151 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing49.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing50.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing51.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing52.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing53.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing54.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing55.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing56.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing57.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing58.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing59.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing60.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing61.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing62.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing63.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing64.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing65.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4705350" cy="1057275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -641,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -663,8 +2808,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -914,11 +3058,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -940,8 +3085,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -1207,11 +3351,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1233,8 +3378,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -1514,11 +3658,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1540,8 +3685,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -1905,11 +4049,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1931,8 +4076,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -2296,11 +4440,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2322,8 +4467,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -2589,11 +4733,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2615,8 +4760,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -2896,11 +5040,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2922,8 +5067,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -3203,11 +5347,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3229,8 +5374,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -3664,11 +5808,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3690,8 +5835,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -3957,11 +6101,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3983,8 +6128,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -4264,11 +6408,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4290,8 +6435,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -4557,11 +6701,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4583,8 +6728,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -4892,11 +7036,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4918,8 +7063,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -5199,11 +7343,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5225,8 +7370,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -5492,11 +7636,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5518,8 +7663,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -5785,11 +7929,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5811,8 +7956,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -6092,11 +8236,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6118,8 +8263,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -6399,11 +8543,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6425,8 +8570,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -6706,11 +8850,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6732,8 +8877,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -7013,11 +9157,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7039,8 +9184,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -7348,11 +9492,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7374,8 +9519,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -7641,11 +9785,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7667,8 +9812,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -7934,11 +10078,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7960,8 +10105,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -8367,11 +10511,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8393,8 +10538,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -8660,11 +10804,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8686,8 +10831,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -8967,11 +11111,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8993,8 +11138,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -9260,11 +11404,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9286,8 +11431,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -9553,11 +11697,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9579,8 +11724,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -9986,11 +12130,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10012,8 +12157,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -10279,11 +12423,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10305,8 +12450,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -10642,11 +12786,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10668,8 +12813,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -10935,11 +13079,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10961,8 +13106,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -11382,11 +13526,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11408,8 +13553,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -11675,11 +13819,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11701,8 +13846,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -11996,11 +14140,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12022,8 +14167,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -12303,11 +14447,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12329,8 +14474,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -12638,11 +14782,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12664,8 +14809,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -12931,11 +15075,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12957,8 +15102,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -13266,11 +15410,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13292,8 +15437,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -13573,11 +15717,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13599,8 +15744,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -13866,11 +16010,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13892,8 +16037,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -14159,11 +16303,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14185,8 +16330,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -14452,11 +16596,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14478,8 +16623,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -14759,11 +16903,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14785,8 +16930,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -15066,11 +17210,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15092,8 +17237,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -15415,11 +17559,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15441,8 +17586,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -15722,11 +17866,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -15748,8 +17893,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -16043,11 +18187,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16069,8 +18214,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -16350,11 +18494,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16376,8 +18521,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -16657,11 +18801,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16683,8 +18828,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -16950,11 +19094,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16976,8 +19121,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -17257,11 +19401,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -17283,8 +19428,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -17550,11 +19694,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -17576,8 +19721,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -17843,11 +19987,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -17869,8 +20014,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -18150,11 +20294,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -18176,8 +20321,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -18443,11 +20587,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -18469,8 +20614,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -18750,11 +20894,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -18776,8 +20921,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -19057,11 +21201,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19083,8 +21228,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -19350,11 +21494,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19376,8 +21521,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -19727,11 +21871,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19753,8 +21898,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -20034,11 +22178,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -20060,8 +22205,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -20341,11 +22485,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -20367,8 +22512,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -20662,11 +22806,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -20688,8 +22833,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -20955,11 +23099,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -20981,8 +23126,7 @@
     <row r="1" ht="77.25" customHeight="1" s="15">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>某某某责任有限公司
-MouMouMou CO.,LTD</t>
+          <t>logo</t>
         </is>
       </c>
     </row>
@@ -21248,5 +23392,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>